--- a/SlaytGun2_1/MID001_GiderlerinSistemeGirilmesi/Data/Input/InputFileTemplate.xlsx
+++ b/SlaytGun2_1/MID001_GiderlerinSistemeGirilmesi/Data/Input/InputFileTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fince\Documents\UIPATH_WORKSPACE\MID001_GiderlerinSistemeGirilmesi\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fince\Desktop\RENOVA_PROJECTS\SlaytGun2_1\MID001_GiderlerinSistemeGirilmesi\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359CD37-C89E-45E7-937C-1BD225091947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754209E0-3C54-4CB9-938C-A94698163EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1125" windowWidth="15300" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1845" windowWidth="15300" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Ad</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Açıklama mesajım.</t>
+  </si>
+  <si>
+    <t>İnce12</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>123456</v>
+        <v>3456</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
@@ -507,6 +510,29 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
